--- a/Code/Results/Cases/Case_5_137/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_137/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.60365288162753</v>
+        <v>24.57465587734637</v>
       </c>
       <c r="C2">
-        <v>17.05410703502844</v>
+        <v>9.256536877775636</v>
       </c>
       <c r="D2">
-        <v>5.170965909222599</v>
+        <v>7.852815787582225</v>
       </c>
       <c r="E2">
-        <v>5.631849147083168</v>
+        <v>9.589500852679581</v>
       </c>
       <c r="F2">
-        <v>41.49293326998568</v>
+        <v>41.57193039689169</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.758166866812571</v>
+        <v>10.48871128386846</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.54572070562893</v>
+        <v>20.10905685934477</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.58318679699657</v>
+        <v>24.07473069002785</v>
       </c>
       <c r="C3">
-        <v>15.83757789858881</v>
+        <v>8.639776147237725</v>
       </c>
       <c r="D3">
-        <v>5.211062263394582</v>
+        <v>7.875895845758193</v>
       </c>
       <c r="E3">
-        <v>5.666783217876934</v>
+        <v>9.608231250050478</v>
       </c>
       <c r="F3">
-        <v>39.4127219880334</v>
+        <v>41.20086126237158</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -486,13 +486,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.474436082922733</v>
+        <v>10.47213174224126</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.75479563511769</v>
+        <v>20.16594502128074</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.33174911281371</v>
+        <v>23.77074027902023</v>
       </c>
       <c r="C4">
-        <v>15.05606638253311</v>
+        <v>8.237740905599779</v>
       </c>
       <c r="D4">
-        <v>5.240258295868905</v>
+        <v>7.891315933408241</v>
       </c>
       <c r="E4">
-        <v>5.689814234437002</v>
+        <v>9.620485003207421</v>
       </c>
       <c r="F4">
-        <v>38.13582115413905</v>
+        <v>40.98430932995671</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -527,13 +527,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.30234479538345</v>
+        <v>10.46427795857787</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.88818312458413</v>
+        <v>20.20286001205958</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.81142918111343</v>
+        <v>23.64779423517631</v>
       </c>
       <c r="C5">
-        <v>14.72868598027152</v>
+        <v>8.068018890434338</v>
       </c>
       <c r="D5">
-        <v>5.253213789470347</v>
+        <v>7.897912594987202</v>
       </c>
       <c r="E5">
-        <v>5.699589002545007</v>
+        <v>9.625668289068519</v>
       </c>
       <c r="F5">
-        <v>37.61585519903524</v>
+        <v>40.89897459810187</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -568,13 +568,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.23279003372483</v>
+        <v>10.46166356297643</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.9437541235442</v>
+        <v>20.21840202707703</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.72440958890851</v>
+        <v>23.62744093717553</v>
       </c>
       <c r="C6">
-        <v>14.6737806968443</v>
+        <v>8.039480391074255</v>
       </c>
       <c r="D6">
-        <v>5.255426411825567</v>
+        <v>7.899026826828052</v>
       </c>
       <c r="E6">
-        <v>5.701235397851962</v>
+        <v>9.626540443350624</v>
       </c>
       <c r="F6">
-        <v>37.52954926066867</v>
+        <v>40.88498273707314</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -609,13 +609,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.22127656263624</v>
+        <v>10.46126486766312</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.95305381350771</v>
+        <v>20.22101288555701</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.32477362735147</v>
+        <v>23.76907816234872</v>
       </c>
       <c r="C7">
-        <v>15.05168755833326</v>
+        <v>8.235475847662437</v>
       </c>
       <c r="D7">
-        <v>5.240428850157597</v>
+        <v>7.891403633108585</v>
       </c>
       <c r="E7">
-        <v>5.689944493562189</v>
+        <v>9.620554137878532</v>
       </c>
       <c r="F7">
-        <v>38.12880668814474</v>
+        <v>40.9831465926424</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -650,13 +650,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.301404370762368</v>
+        <v>10.46424032567529</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.88892771169069</v>
+        <v>20.20306759773537</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.8830510268213</v>
+        <v>24.40177773233025</v>
       </c>
       <c r="C8">
-        <v>16.64168196801942</v>
+        <v>9.048710301975357</v>
       </c>
       <c r="D8">
-        <v>5.183781882602153</v>
+        <v>7.860513881002144</v>
       </c>
       <c r="E8">
-        <v>5.643560902990354</v>
+        <v>9.595802992537996</v>
       </c>
       <c r="F8">
-        <v>40.775735554827</v>
+        <v>41.44168969227987</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.6599171032581</v>
+        <v>10.48251270127107</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.6167379696933</v>
+        <v>20.12825957886546</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.88619342156478</v>
+        <v>25.65793799425832</v>
       </c>
       <c r="C9">
-        <v>19.49656940052396</v>
+        <v>10.45915852073315</v>
       </c>
       <c r="D9">
-        <v>5.113818247516884</v>
+        <v>7.809901798322059</v>
       </c>
       <c r="E9">
-        <v>5.565588471112985</v>
+        <v>9.553225437205827</v>
       </c>
       <c r="F9">
-        <v>45.96406774186838</v>
+        <v>42.426891027911</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -732,13 +732,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.378724974091732</v>
+        <v>10.53673197986323</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.1254372610833</v>
+        <v>19.99733227498857</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37.326017373332</v>
+        <v>26.57971266673561</v>
       </c>
       <c r="C10">
-        <v>21.45146225597335</v>
+        <v>11.38431239429836</v>
       </c>
       <c r="D10">
-        <v>5.095263949747659</v>
+        <v>7.778865465389805</v>
       </c>
       <c r="E10">
-        <v>5.516960826592792</v>
+        <v>9.525553289585883</v>
       </c>
       <c r="F10">
-        <v>49.78047798337232</v>
+        <v>43.1980181505291</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -773,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.916387154791396</v>
+        <v>10.58765641627452</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.79524009638619</v>
+        <v>19.91077829836113</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>38.8466479054622</v>
+        <v>26.99670009313971</v>
       </c>
       <c r="C11">
-        <v>22.3145976471063</v>
+        <v>11.78133141734204</v>
       </c>
       <c r="D11">
-        <v>5.096054892914934</v>
+        <v>7.766097839834954</v>
       </c>
       <c r="E11">
-        <v>5.496933422845022</v>
+        <v>9.513743412342867</v>
       </c>
       <c r="F11">
-        <v>51.52298460661041</v>
+        <v>43.55791197821225</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -814,13 +814,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.163515098877506</v>
+        <v>10.61319629520936</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.65322870740439</v>
+        <v>19.87350149933703</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>39.41685384393733</v>
+        <v>27.15410227271434</v>
       </c>
       <c r="C12">
-        <v>22.63816096157394</v>
+        <v>11.92826517657324</v>
       </c>
       <c r="D12">
-        <v>5.097891963520373</v>
+        <v>7.761458749946483</v>
       </c>
       <c r="E12">
-        <v>5.489673513939191</v>
+        <v>9.509382875959517</v>
       </c>
       <c r="F12">
-        <v>52.18449638634238</v>
+        <v>43.69539951388216</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -855,13 +855,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.257537125096418</v>
+        <v>10.62320523640169</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.60080269206525</v>
+        <v>19.85968796943779</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>39.29428678725158</v>
+        <v>27.12022777162949</v>
       </c>
       <c r="C13">
-        <v>22.56861358160944</v>
+        <v>11.89677166229859</v>
       </c>
       <c r="D13">
-        <v>5.097424229129935</v>
+        <v>7.762449132073526</v>
       </c>
       <c r="E13">
-        <v>5.491222234225504</v>
+        <v>9.510317036637773</v>
       </c>
       <c r="F13">
-        <v>52.04193929135901</v>
+        <v>43.66573728793914</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.237266669336433</v>
+        <v>10.62103468546538</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.61203030252304</v>
+        <v>19.86264949774936</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38.89366712427158</v>
+        <v>27.00966064485426</v>
       </c>
       <c r="C14">
-        <v>22.34128027052597</v>
+        <v>11.79348795262514</v>
       </c>
       <c r="D14">
-        <v>5.096173892388957</v>
+        <v>7.765712247859116</v>
       </c>
       <c r="E14">
-        <v>5.496329502329518</v>
+        <v>9.513382433378762</v>
       </c>
       <c r="F14">
-        <v>51.57736903573915</v>
+        <v>43.56919965180963</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -937,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.171240978328541</v>
+        <v>10.61401299556393</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.64888738138702</v>
+        <v>19.87235898672656</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>38.64756763643506</v>
+        <v>26.94186494043002</v>
       </c>
       <c r="C15">
-        <v>22.20161940427944</v>
+        <v>11.72978034865761</v>
       </c>
       <c r="D15">
-        <v>5.095615062156158</v>
+        <v>7.767736534610759</v>
       </c>
       <c r="E15">
-        <v>5.499500816224343</v>
+        <v>9.51527460281817</v>
       </c>
       <c r="F15">
-        <v>51.29304950027161</v>
+        <v>43.51022113002936</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -978,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.130858440447245</v>
+        <v>10.6097558441045</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.67164512520246</v>
+        <v>19.87834573411007</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>37.22581086957681</v>
+        <v>26.55240017975763</v>
       </c>
       <c r="C16">
-        <v>21.39456671260347</v>
+        <v>11.35788822344565</v>
       </c>
       <c r="D16">
-        <v>5.095415241813487</v>
+        <v>7.779727169317105</v>
       </c>
       <c r="E16">
-        <v>5.518313648914905</v>
+        <v>9.52634072768754</v>
       </c>
       <c r="F16">
-        <v>49.666787223297</v>
+        <v>43.17467246422963</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.900293519178563</v>
+        <v>10.58603477912572</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.8046995747482</v>
+        <v>19.91325669267002</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>36.34277199762767</v>
+        <v>26.31275740521247</v>
       </c>
       <c r="C17">
-        <v>20.89307978123286</v>
+        <v>11.12365259573351</v>
       </c>
       <c r="D17">
-        <v>5.097796523774225</v>
+        <v>7.787430084208512</v>
       </c>
       <c r="E17">
-        <v>5.530405819277192</v>
+        <v>9.53332855840655</v>
       </c>
       <c r="F17">
-        <v>48.67121256311291</v>
+        <v>42.9710816176113</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.75954314095681</v>
+        <v>10.5720881400301</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.88853326057034</v>
+        <v>19.93521111340251</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.83066342988725</v>
+        <v>26.17471107605079</v>
       </c>
       <c r="C18">
-        <v>20.60214332776597</v>
+        <v>10.98668155982668</v>
       </c>
       <c r="D18">
-        <v>5.100020717074537</v>
+        <v>7.791987666561869</v>
       </c>
       <c r="E18">
-        <v>5.537556344258234</v>
+        <v>9.537421051518177</v>
       </c>
       <c r="F18">
-        <v>48.09912744344629</v>
+        <v>42.85484497165243</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.678820240223157</v>
+        <v>10.56429012241621</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.93751123235427</v>
+        <v>19.94803604585928</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>35.65652964328527</v>
+        <v>26.12794009139922</v>
       </c>
       <c r="C19">
-        <v>20.5031956554513</v>
+        <v>10.93991937229957</v>
       </c>
       <c r="D19">
-        <v>5.100914677545518</v>
+        <v>7.793552565599311</v>
       </c>
       <c r="E19">
-        <v>5.540010329690901</v>
+        <v>9.538819294543462</v>
       </c>
       <c r="F19">
-        <v>47.90550423549139</v>
+        <v>42.81564071565736</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.651527146368705</v>
+        <v>10.56168838180647</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.95422012157625</v>
+        <v>19.95241221468435</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>36.43720368127981</v>
+        <v>26.3382907720735</v>
       </c>
       <c r="C20">
-        <v>20.9467189065068</v>
+        <v>11.14881957749088</v>
       </c>
       <c r="D20">
-        <v>5.097453171492142</v>
+        <v>7.786596934018987</v>
       </c>
       <c r="E20">
-        <v>5.529098209642969</v>
+        <v>9.53257711022802</v>
       </c>
       <c r="F20">
-        <v>48.77713245512645</v>
+        <v>42.99266560792123</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.774501713623351</v>
+        <v>10.57354965584806</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.87952934871478</v>
+        <v>19.93285359903672</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>39.01148495073944</v>
+        <v>27.042151792688</v>
       </c>
       <c r="C21">
-        <v>22.40813860542631</v>
+        <v>11.82391724134134</v>
       </c>
       <c r="D21">
-        <v>5.096497577306567</v>
+        <v>7.764748467713964</v>
       </c>
       <c r="E21">
-        <v>5.49482037189055</v>
+        <v>9.512479025516987</v>
       </c>
       <c r="F21">
-        <v>51.71377218952829</v>
+        <v>43.59752328345608</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.190621615824675</v>
+        <v>10.61606630812315</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.63802332495425</v>
+        <v>19.86949886090738</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40.66159351241643</v>
+        <v>27.49916959382487</v>
       </c>
       <c r="C22">
-        <v>23.34438317104902</v>
+        <v>12.24527275301514</v>
       </c>
       <c r="D22">
-        <v>5.104957875978614</v>
+        <v>7.751610809712266</v>
       </c>
       <c r="E22">
-        <v>5.474321033081372</v>
+        <v>9.499994159851214</v>
       </c>
       <c r="F22">
-        <v>53.64327578481948</v>
+        <v>43.9997977071784</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.465205695206148</v>
+        <v>10.64581876654312</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.48817043174694</v>
+        <v>19.82985583129754</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>39.78357872980967</v>
+        <v>27.25557731152014</v>
       </c>
       <c r="C23">
-        <v>22.84624003917653</v>
+        <v>12.02219825100455</v>
       </c>
       <c r="D23">
-        <v>5.099532745656656</v>
+        <v>7.758517679910613</v>
       </c>
       <c r="E23">
-        <v>5.485078821213516</v>
+        <v>9.506598158576832</v>
       </c>
       <c r="F23">
-        <v>52.61220751261786</v>
+        <v>43.78449436641139</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.318380779711367</v>
+        <v>10.62976087263954</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.56735055033074</v>
+        <v>19.85085246293843</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>36.39452499251968</v>
+        <v>26.32674797297617</v>
       </c>
       <c r="C24">
-        <v>20.92247686849999</v>
+        <v>11.13744876870856</v>
       </c>
       <c r="D24">
-        <v>5.097605752904378</v>
+        <v>7.786973199294087</v>
       </c>
       <c r="E24">
-        <v>5.529688763082012</v>
+        <v>9.53291660601808</v>
       </c>
       <c r="F24">
-        <v>48.72924523959448</v>
+        <v>42.98290495356545</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.76773833638487</v>
+        <v>10.57288821872582</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.88359759755795</v>
+        <v>19.93391879890908</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.57617600481787</v>
+        <v>25.31757069663378</v>
       </c>
       <c r="C25">
-        <v>18.75072085094858</v>
+        <v>10.09719606646459</v>
       </c>
       <c r="D25">
-        <v>5.127608243382134</v>
+        <v>7.822519489547765</v>
       </c>
       <c r="E25">
-        <v>5.585223626910875</v>
+        <v>9.564108244325883</v>
       </c>
       <c r="F25">
-        <v>44.56078855040564</v>
+        <v>42.15167167374261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.182660433822118</v>
+        <v>10.52010627326206</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.25337030743683</v>
+        <v>20.03106089177426</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_137/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_137/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.57465587734637</v>
+        <v>29.60365288162749</v>
       </c>
       <c r="C2">
-        <v>9.256536877775636</v>
+        <v>17.05410703502847</v>
       </c>
       <c r="D2">
-        <v>7.852815787582225</v>
+        <v>5.170965909222615</v>
       </c>
       <c r="E2">
-        <v>9.589500852679581</v>
+        <v>5.63184914708323</v>
       </c>
       <c r="F2">
-        <v>41.57193039689169</v>
+        <v>41.49293326998575</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.48871128386846</v>
+        <v>7.758166866812527</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.10905685934477</v>
+        <v>13.54572070562902</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.07473069002785</v>
+        <v>27.58318679699655</v>
       </c>
       <c r="C3">
-        <v>8.639776147237725</v>
+        <v>15.83757789858885</v>
       </c>
       <c r="D3">
-        <v>7.875895845758193</v>
+        <v>5.211062263394531</v>
       </c>
       <c r="E3">
-        <v>9.608231250050478</v>
+        <v>5.666783217877066</v>
       </c>
       <c r="F3">
-        <v>41.20086126237158</v>
+        <v>39.41272198803328</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -486,13 +486,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.47213174224126</v>
+        <v>7.474436082922733</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.16594502128074</v>
+        <v>13.75479563511762</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.77074027902023</v>
+        <v>26.33174911281372</v>
       </c>
       <c r="C4">
-        <v>8.237740905599779</v>
+        <v>15.05606638253313</v>
       </c>
       <c r="D4">
-        <v>7.891315933408241</v>
+        <v>5.240258295869073</v>
       </c>
       <c r="E4">
-        <v>9.620485003207421</v>
+        <v>5.689814234437003</v>
       </c>
       <c r="F4">
-        <v>40.98430932995671</v>
+        <v>38.13582115413902</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -527,13 +527,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.46427795857787</v>
+        <v>7.302344795383471</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.20286001205958</v>
+        <v>13.8881831245841</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.64779423517631</v>
+        <v>25.81142918111343</v>
       </c>
       <c r="C5">
-        <v>8.068018890434338</v>
+        <v>14.72868598027139</v>
       </c>
       <c r="D5">
-        <v>7.897912594987202</v>
+        <v>5.253213789470458</v>
       </c>
       <c r="E5">
-        <v>9.625668289068519</v>
+        <v>5.699589002545011</v>
       </c>
       <c r="F5">
-        <v>40.89897459810187</v>
+        <v>37.61585519903532</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -568,13 +568,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.46166356297643</v>
+        <v>7.232790033724866</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.21840202707703</v>
+        <v>13.94375412354421</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.62744093717553</v>
+        <v>25.72440958890856</v>
       </c>
       <c r="C6">
-        <v>8.039480391074255</v>
+        <v>14.6737806968442</v>
       </c>
       <c r="D6">
-        <v>7.899026826828052</v>
+        <v>5.255426411825482</v>
       </c>
       <c r="E6">
-        <v>9.626540443350624</v>
+        <v>5.701235397851962</v>
       </c>
       <c r="F6">
-        <v>40.88498273707314</v>
+        <v>37.52954926066874</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -609,13 +609,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.46126486766312</v>
+        <v>7.221276562636309</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.22101288555701</v>
+        <v>13.95305381350763</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.76907816234872</v>
+        <v>26.3247736273515</v>
       </c>
       <c r="C7">
-        <v>8.235475847662437</v>
+        <v>15.05168755833332</v>
       </c>
       <c r="D7">
-        <v>7.891403633108585</v>
+        <v>5.240428850157663</v>
       </c>
       <c r="E7">
-        <v>9.620554137878532</v>
+        <v>5.689944493562187</v>
       </c>
       <c r="F7">
-        <v>40.9831465926424</v>
+        <v>38.12880668814466</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -650,13 +650,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.46424032567529</v>
+        <v>7.301404370762358</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.20306759773537</v>
+        <v>13.88892771169067</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.40177773233025</v>
+        <v>28.88305102682121</v>
       </c>
       <c r="C8">
-        <v>9.048710301975357</v>
+        <v>16.64168196801949</v>
       </c>
       <c r="D8">
-        <v>7.860513881002144</v>
+        <v>5.183781882602164</v>
       </c>
       <c r="E8">
-        <v>9.595802992537996</v>
+        <v>5.643560902990413</v>
       </c>
       <c r="F8">
-        <v>41.44168969227987</v>
+        <v>40.77573555482704</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.48251270127107</v>
+        <v>7.659917103258095</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.12825957886546</v>
+        <v>13.6167379696935</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.65793799425832</v>
+        <v>33.88619342156468</v>
       </c>
       <c r="C9">
-        <v>10.45915852073315</v>
+        <v>19.49656940052382</v>
       </c>
       <c r="D9">
-        <v>7.809901798322059</v>
+        <v>5.113818247516892</v>
       </c>
       <c r="E9">
-        <v>9.553225437205827</v>
+        <v>5.565588471112863</v>
       </c>
       <c r="F9">
-        <v>42.426891027911</v>
+        <v>45.96406774186832</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -732,13 +732,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.53673197986323</v>
+        <v>8.378724974091748</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.99733227498857</v>
+        <v>13.12543726108336</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.57971266673561</v>
+        <v>37.32601737333204</v>
       </c>
       <c r="C10">
-        <v>11.38431239429836</v>
+        <v>21.45146225597339</v>
       </c>
       <c r="D10">
-        <v>7.778865465389805</v>
+        <v>5.095263949747631</v>
       </c>
       <c r="E10">
-        <v>9.525553289585883</v>
+        <v>5.516960826592729</v>
       </c>
       <c r="F10">
-        <v>43.1980181505291</v>
+        <v>49.78047798337239</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -773,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.58765641627452</v>
+        <v>8.916387154791373</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.91077829836113</v>
+        <v>12.79524009638624</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.99670009313971</v>
+        <v>38.84664790546231</v>
       </c>
       <c r="C11">
-        <v>11.78133141734204</v>
+        <v>22.31459764710655</v>
       </c>
       <c r="D11">
-        <v>7.766097839834954</v>
+        <v>5.096054892914947</v>
       </c>
       <c r="E11">
-        <v>9.513743412342867</v>
+        <v>5.496933422845022</v>
       </c>
       <c r="F11">
-        <v>43.55791197821225</v>
+        <v>51.52298460661054</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -814,13 +814,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.61319629520936</v>
+        <v>9.163515098877509</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.87350149933703</v>
+        <v>12.65322870740438</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.15410227271434</v>
+        <v>39.41685384393735</v>
       </c>
       <c r="C12">
-        <v>11.92826517657324</v>
+        <v>22.63816096157401</v>
       </c>
       <c r="D12">
-        <v>7.761458749946483</v>
+        <v>5.097891963520286</v>
       </c>
       <c r="E12">
-        <v>9.509382875959517</v>
+        <v>5.489673513939199</v>
       </c>
       <c r="F12">
-        <v>43.69539951388216</v>
+        <v>52.1844963863424</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -855,13 +855,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.62320523640169</v>
+        <v>9.257537125096443</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.85968796943779</v>
+        <v>12.60080269206523</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.12022777162949</v>
+        <v>39.29428678725157</v>
       </c>
       <c r="C13">
-        <v>11.89677166229859</v>
+        <v>22.56861358160953</v>
       </c>
       <c r="D13">
-        <v>7.762449132073526</v>
+        <v>5.097424229129973</v>
       </c>
       <c r="E13">
-        <v>9.510317036637773</v>
+        <v>5.491222234225565</v>
       </c>
       <c r="F13">
-        <v>43.66573728793914</v>
+        <v>52.04193929135903</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.62103468546538</v>
+        <v>9.237266669336421</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.86264949774936</v>
+        <v>12.61203030252304</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.00966064485426</v>
+        <v>38.89366712427149</v>
       </c>
       <c r="C14">
-        <v>11.79348795262514</v>
+        <v>22.34128027052591</v>
       </c>
       <c r="D14">
-        <v>7.765712247859116</v>
+        <v>5.09617389238898</v>
       </c>
       <c r="E14">
-        <v>9.513382433378762</v>
+        <v>5.496329502329587</v>
       </c>
       <c r="F14">
-        <v>43.56919965180963</v>
+        <v>51.57736903573902</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -937,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.61401299556393</v>
+        <v>9.17124097832855</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.87235898672656</v>
+        <v>12.64888738138704</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.94186494043002</v>
+        <v>38.64756763643485</v>
       </c>
       <c r="C15">
-        <v>11.72978034865761</v>
+        <v>22.20161940427931</v>
       </c>
       <c r="D15">
-        <v>7.767736534610759</v>
+        <v>5.095615062156241</v>
       </c>
       <c r="E15">
-        <v>9.51527460281817</v>
+        <v>5.499500816224399</v>
       </c>
       <c r="F15">
-        <v>43.51022113002936</v>
+        <v>51.29304950027138</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -978,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.6097558441045</v>
+        <v>9.130858440447218</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.87834573411007</v>
+        <v>12.67164512520248</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.55240017975763</v>
+        <v>37.22581086957678</v>
       </c>
       <c r="C16">
-        <v>11.35788822344565</v>
+        <v>21.39456671260351</v>
       </c>
       <c r="D16">
-        <v>7.779727169317105</v>
+        <v>5.095415241813501</v>
       </c>
       <c r="E16">
-        <v>9.52634072768754</v>
+        <v>5.518313648914902</v>
       </c>
       <c r="F16">
-        <v>43.17467246422963</v>
+        <v>49.66678722329691</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.58603477912572</v>
+        <v>8.900293519178522</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.91325669267002</v>
+        <v>12.80469957474818</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.31275740521247</v>
+        <v>36.34277199762761</v>
       </c>
       <c r="C17">
-        <v>11.12365259573351</v>
+        <v>20.89307978123281</v>
       </c>
       <c r="D17">
-        <v>7.787430084208512</v>
+        <v>5.097796523774266</v>
       </c>
       <c r="E17">
-        <v>9.53332855840655</v>
+        <v>5.530405819277255</v>
       </c>
       <c r="F17">
-        <v>42.9710816176113</v>
+        <v>48.67121256311286</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.5720881400301</v>
+        <v>8.759543140956787</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.93521111340251</v>
+        <v>12.88853326057035</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.17471107605079</v>
+        <v>35.83066342988744</v>
       </c>
       <c r="C18">
-        <v>10.98668155982668</v>
+        <v>20.60214332776612</v>
       </c>
       <c r="D18">
-        <v>7.791987666561869</v>
+        <v>5.100020717074473</v>
       </c>
       <c r="E18">
-        <v>9.537421051518177</v>
+        <v>5.537556344258109</v>
       </c>
       <c r="F18">
-        <v>42.85484497165243</v>
+        <v>48.09912744344646</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.56429012241621</v>
+        <v>8.678820240223162</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.94803604585928</v>
+        <v>12.93751123235415</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.12794009139922</v>
+        <v>35.65652964328525</v>
       </c>
       <c r="C19">
-        <v>10.93991937229957</v>
+        <v>20.50319565545144</v>
       </c>
       <c r="D19">
-        <v>7.793552565599311</v>
+        <v>5.100914677545449</v>
       </c>
       <c r="E19">
-        <v>9.538819294543462</v>
+        <v>5.540010329691025</v>
       </c>
       <c r="F19">
-        <v>42.81564071565736</v>
+        <v>47.90550423549133</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.56168838180647</v>
+        <v>8.651527146368705</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.95241221468435</v>
+        <v>12.95422012157626</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.3382907720735</v>
+        <v>36.43720368127986</v>
       </c>
       <c r="C20">
-        <v>11.14881957749088</v>
+        <v>20.9467189065071</v>
       </c>
       <c r="D20">
-        <v>7.786596934018987</v>
+        <v>5.097453171492142</v>
       </c>
       <c r="E20">
-        <v>9.53257711022802</v>
+        <v>5.529098209643216</v>
       </c>
       <c r="F20">
-        <v>42.99266560792123</v>
+        <v>48.77713245512643</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.57354965584806</v>
+        <v>8.774501713623359</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.93285359903672</v>
+        <v>12.87952934871472</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.042151792688</v>
+        <v>39.01148495073954</v>
       </c>
       <c r="C21">
-        <v>11.82391724134134</v>
+        <v>22.40813860542638</v>
       </c>
       <c r="D21">
-        <v>7.764748467713964</v>
+        <v>5.096497577306558</v>
       </c>
       <c r="E21">
-        <v>9.512479025516987</v>
+        <v>5.494820371890491</v>
       </c>
       <c r="F21">
-        <v>43.59752328345608</v>
+        <v>51.71377218952829</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.61606630812315</v>
+        <v>9.190621615824689</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.86949886090738</v>
+        <v>12.63802332495417</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.49916959382487</v>
+        <v>40.66159351241629</v>
       </c>
       <c r="C22">
-        <v>12.24527275301514</v>
+        <v>23.34438317104889</v>
       </c>
       <c r="D22">
-        <v>7.751610809712266</v>
+        <v>5.104957875978577</v>
       </c>
       <c r="E22">
-        <v>9.499994159851214</v>
+        <v>5.474321033081448</v>
       </c>
       <c r="F22">
-        <v>43.9997977071784</v>
+        <v>53.64327578481931</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.64581876654312</v>
+        <v>9.465205695206166</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.82985583129754</v>
+        <v>12.48817043174695</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.25557731152014</v>
+        <v>39.78357872980975</v>
       </c>
       <c r="C23">
-        <v>12.02219825100455</v>
+        <v>22.84624003917673</v>
       </c>
       <c r="D23">
-        <v>7.758517679910613</v>
+        <v>5.099532745656657</v>
       </c>
       <c r="E23">
-        <v>9.506598158576832</v>
+        <v>5.485078821213577</v>
       </c>
       <c r="F23">
-        <v>43.78449436641139</v>
+        <v>52.61220751261797</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.62976087263954</v>
+        <v>9.318380779711365</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.85085246293843</v>
+        <v>12.56735055033062</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.32674797297617</v>
+        <v>36.39452499251966</v>
       </c>
       <c r="C24">
-        <v>11.13744876870856</v>
+        <v>20.92247686850001</v>
       </c>
       <c r="D24">
-        <v>7.786973199294087</v>
+        <v>5.097605752904323</v>
       </c>
       <c r="E24">
-        <v>9.53291660601808</v>
+        <v>5.529688763082015</v>
       </c>
       <c r="F24">
-        <v>42.98290495356545</v>
+        <v>48.72924523959449</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.57288821872582</v>
+        <v>8.767738336384886</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.93391879890908</v>
+        <v>12.88359759755795</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.31757069663378</v>
+        <v>32.576176004818</v>
       </c>
       <c r="C25">
-        <v>10.09719606646459</v>
+        <v>18.75072085094857</v>
       </c>
       <c r="D25">
-        <v>7.822519489547765</v>
+        <v>5.127608243382052</v>
       </c>
       <c r="E25">
-        <v>9.564108244325883</v>
+        <v>5.585223626910878</v>
       </c>
       <c r="F25">
-        <v>42.15167167374261</v>
+        <v>44.5607885504057</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.52010627326206</v>
+        <v>8.182660433822118</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.03106089177426</v>
+        <v>13.25337030743678</v>
       </c>
       <c r="O25">
         <v>0</v>
